--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_282.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_282.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33198-d4451826-Reviews-Fairfield_Inn_Suites_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>211</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Fairfield-Inn-Suites-Tustin-Orange-County.h6141877.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_282.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_282.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1094">
   <si>
     <t>STR#</t>
   </si>
@@ -3123,6 +3123,9 @@
   </si>
   <si>
     <t>My family of 4 stayed here for 5 nights.  The desk staff were all very friendly.  Rooms were spacious and beds were nice and soft.  We had two queen beds.  There is a small snack area by the front desk where you can purchase snacks 24 hours. Enjoyed the breakfast in the morning in a large eating area.  There were several options including scrambled eggs, sausage, bagels, muffins, oatmeal, fruit, yogurt, juice and coffee.  My only suggestion would be that you add a little more variety to the main breakfast items.   Staying here 5 nights...the eggs and sausage can get old.  Hotel was quiet.  One complaint I had was every night I had to go down to the front desk and ask for a 4th towel for our room.  Housekeeping would only leave three.  Each time I would ask if they could notify housekeeping and was told an email was being sent.  Maybe letting the housekeeper know how many people are in the room would help to eliminate this issue.  Other than that, enjoyed the hotel and the location was perfect, out of the main areas of town.   There is a Starbucks next door, a Subway and also a burger place opening soon.  Would definately stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>David T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451826-r185018185-Fairfield_Inn_Suites_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -3973,7 +3976,7 @@
         <v>62453</v>
       </c>
       <c r="B3" t="n">
-        <v>146922</v>
+        <v>178280</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -4034,7 +4037,7 @@
         <v>62453</v>
       </c>
       <c r="B4" t="n">
-        <v>146923</v>
+        <v>178281</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -4101,7 +4104,7 @@
         <v>62453</v>
       </c>
       <c r="B5" t="n">
-        <v>146924</v>
+        <v>178282</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -4172,7 +4175,7 @@
         <v>62453</v>
       </c>
       <c r="B6" t="n">
-        <v>146925</v>
+        <v>178283</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -4233,7 +4236,7 @@
         <v>62453</v>
       </c>
       <c r="B7" t="n">
-        <v>146926</v>
+        <v>178284</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -4294,7 +4297,7 @@
         <v>62453</v>
       </c>
       <c r="B8" t="n">
-        <v>146927</v>
+        <v>178285</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -4355,7 +4358,7 @@
         <v>62453</v>
       </c>
       <c r="B9" t="n">
-        <v>146928</v>
+        <v>178286</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -4422,7 +4425,7 @@
         <v>62453</v>
       </c>
       <c r="B10" t="n">
-        <v>146929</v>
+        <v>178287</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -4487,7 +4490,7 @@
         <v>62453</v>
       </c>
       <c r="B11" t="n">
-        <v>146930</v>
+        <v>178288</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -4556,7 +4559,7 @@
         <v>62453</v>
       </c>
       <c r="B12" t="n">
-        <v>146931</v>
+        <v>178289</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
@@ -4747,7 +4750,7 @@
         <v>62453</v>
       </c>
       <c r="B15" t="n">
-        <v>146932</v>
+        <v>178290</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
@@ -4808,7 +4811,7 @@
         <v>62453</v>
       </c>
       <c r="B16" t="n">
-        <v>146933</v>
+        <v>178291</v>
       </c>
       <c r="C16" t="s">
         <v>155</v>
@@ -4879,7 +4882,7 @@
         <v>62453</v>
       </c>
       <c r="B17" t="n">
-        <v>146934</v>
+        <v>178292</v>
       </c>
       <c r="C17" t="s">
         <v>163</v>
@@ -4944,7 +4947,7 @@
         <v>62453</v>
       </c>
       <c r="B18" t="n">
-        <v>146935</v>
+        <v>178293</v>
       </c>
       <c r="C18" t="s">
         <v>173</v>
@@ -5011,7 +5014,7 @@
         <v>62453</v>
       </c>
       <c r="B19" t="n">
-        <v>146936</v>
+        <v>178294</v>
       </c>
       <c r="C19" t="s">
         <v>180</v>
@@ -5078,7 +5081,7 @@
         <v>62453</v>
       </c>
       <c r="B20" t="n">
-        <v>146937</v>
+        <v>178295</v>
       </c>
       <c r="C20" t="s">
         <v>186</v>
@@ -5139,7 +5142,7 @@
         <v>62453</v>
       </c>
       <c r="B21" t="n">
-        <v>146938</v>
+        <v>178296</v>
       </c>
       <c r="C21" t="s">
         <v>193</v>
@@ -5342,7 +5345,7 @@
         <v>62453</v>
       </c>
       <c r="B24" t="n">
-        <v>146939</v>
+        <v>178297</v>
       </c>
       <c r="C24" t="s">
         <v>219</v>
@@ -5409,7 +5412,7 @@
         <v>62453</v>
       </c>
       <c r="B25" t="n">
-        <v>146940</v>
+        <v>178298</v>
       </c>
       <c r="C25" t="s">
         <v>226</v>
@@ -5539,7 +5542,7 @@
         <v>62453</v>
       </c>
       <c r="B27" t="n">
-        <v>146941</v>
+        <v>178299</v>
       </c>
       <c r="C27" t="s">
         <v>242</v>
@@ -5610,7 +5613,7 @@
         <v>62453</v>
       </c>
       <c r="B28" t="n">
-        <v>146942</v>
+        <v>178300</v>
       </c>
       <c r="C28" t="s">
         <v>249</v>
@@ -5681,7 +5684,7 @@
         <v>62453</v>
       </c>
       <c r="B29" t="n">
-        <v>146943</v>
+        <v>178301</v>
       </c>
       <c r="C29" t="s">
         <v>259</v>
@@ -5811,7 +5814,7 @@
         <v>62453</v>
       </c>
       <c r="B31" t="n">
-        <v>146944</v>
+        <v>178302</v>
       </c>
       <c r="C31" t="s">
         <v>276</v>
@@ -5880,7 +5883,7 @@
         <v>62453</v>
       </c>
       <c r="B32" t="n">
-        <v>146945</v>
+        <v>178303</v>
       </c>
       <c r="C32" t="s">
         <v>286</v>
@@ -5949,7 +5952,7 @@
         <v>62453</v>
       </c>
       <c r="B33" t="n">
-        <v>146946</v>
+        <v>178304</v>
       </c>
       <c r="C33" t="s">
         <v>296</v>
@@ -6010,7 +6013,7 @@
         <v>62453</v>
       </c>
       <c r="B34" t="n">
-        <v>146947</v>
+        <v>178305</v>
       </c>
       <c r="C34" t="s">
         <v>304</v>
@@ -6075,7 +6078,7 @@
         <v>62453</v>
       </c>
       <c r="B35" t="n">
-        <v>146948</v>
+        <v>178306</v>
       </c>
       <c r="C35" t="s">
         <v>314</v>
@@ -6142,7 +6145,7 @@
         <v>62453</v>
       </c>
       <c r="B36" t="n">
-        <v>146949</v>
+        <v>178307</v>
       </c>
       <c r="C36" t="s">
         <v>324</v>
@@ -6207,7 +6210,7 @@
         <v>62453</v>
       </c>
       <c r="B37" t="n">
-        <v>146950</v>
+        <v>178308</v>
       </c>
       <c r="C37" t="s">
         <v>333</v>
@@ -6278,7 +6281,7 @@
         <v>62453</v>
       </c>
       <c r="B38" t="n">
-        <v>146951</v>
+        <v>178309</v>
       </c>
       <c r="C38" t="s">
         <v>342</v>
@@ -6343,7 +6346,7 @@
         <v>62453</v>
       </c>
       <c r="B39" t="n">
-        <v>146952</v>
+        <v>178310</v>
       </c>
       <c r="C39" t="s">
         <v>351</v>
@@ -6414,7 +6417,7 @@
         <v>62453</v>
       </c>
       <c r="B40" t="n">
-        <v>146953</v>
+        <v>178311</v>
       </c>
       <c r="C40" t="s">
         <v>358</v>
@@ -6483,7 +6486,7 @@
         <v>62453</v>
       </c>
       <c r="B41" t="n">
-        <v>146954</v>
+        <v>178312</v>
       </c>
       <c r="C41" t="s">
         <v>368</v>
@@ -6619,7 +6622,7 @@
         <v>62453</v>
       </c>
       <c r="B43" t="n">
-        <v>146955</v>
+        <v>178313</v>
       </c>
       <c r="C43" t="s">
         <v>387</v>
@@ -6688,7 +6691,7 @@
         <v>62453</v>
       </c>
       <c r="B44" t="n">
-        <v>146956</v>
+        <v>178314</v>
       </c>
       <c r="C44" t="s">
         <v>396</v>
@@ -6960,7 +6963,7 @@
         <v>62453</v>
       </c>
       <c r="B48" t="n">
-        <v>146957</v>
+        <v>178315</v>
       </c>
       <c r="C48" t="s">
         <v>434</v>
@@ -7031,7 +7034,7 @@
         <v>62453</v>
       </c>
       <c r="B49" t="n">
-        <v>146958</v>
+        <v>178316</v>
       </c>
       <c r="C49" t="s">
         <v>441</v>
@@ -7167,7 +7170,7 @@
         <v>62453</v>
       </c>
       <c r="B51" t="n">
-        <v>146959</v>
+        <v>178317</v>
       </c>
       <c r="C51" t="s">
         <v>459</v>
@@ -7441,7 +7444,7 @@
         <v>62453</v>
       </c>
       <c r="B55" t="n">
-        <v>146960</v>
+        <v>178318</v>
       </c>
       <c r="C55" t="s">
         <v>494</v>
@@ -7502,7 +7505,7 @@
         <v>62453</v>
       </c>
       <c r="B56" t="n">
-        <v>146961</v>
+        <v>146940</v>
       </c>
       <c r="C56" t="s">
         <v>501</v>
@@ -7642,7 +7645,7 @@
         <v>62453</v>
       </c>
       <c r="B58" t="n">
-        <v>146962</v>
+        <v>178319</v>
       </c>
       <c r="C58" t="s">
         <v>520</v>
@@ -7713,7 +7716,7 @@
         <v>62453</v>
       </c>
       <c r="B59" t="n">
-        <v>146963</v>
+        <v>178320</v>
       </c>
       <c r="C59" t="s">
         <v>528</v>
@@ -7778,7 +7781,7 @@
         <v>62453</v>
       </c>
       <c r="B60" t="n">
-        <v>146964</v>
+        <v>178321</v>
       </c>
       <c r="C60" t="s">
         <v>537</v>
@@ -7843,7 +7846,7 @@
         <v>62453</v>
       </c>
       <c r="B61" t="n">
-        <v>146965</v>
+        <v>178322</v>
       </c>
       <c r="C61" t="s">
         <v>547</v>
@@ -7983,7 +7986,7 @@
         <v>62453</v>
       </c>
       <c r="B63" t="n">
-        <v>146966</v>
+        <v>178323</v>
       </c>
       <c r="C63" t="s">
         <v>565</v>
@@ -8048,7 +8051,7 @@
         <v>62453</v>
       </c>
       <c r="B64" t="n">
-        <v>146967</v>
+        <v>178324</v>
       </c>
       <c r="C64" t="s">
         <v>574</v>
@@ -8119,7 +8122,7 @@
         <v>62453</v>
       </c>
       <c r="B65" t="n">
-        <v>146968</v>
+        <v>178325</v>
       </c>
       <c r="C65" t="s">
         <v>584</v>
@@ -8184,7 +8187,7 @@
         <v>62453</v>
       </c>
       <c r="B66" t="n">
-        <v>146969</v>
+        <v>178326</v>
       </c>
       <c r="C66" t="s">
         <v>594</v>
@@ -8253,7 +8256,7 @@
         <v>62453</v>
       </c>
       <c r="B67" t="n">
-        <v>146970</v>
+        <v>178327</v>
       </c>
       <c r="C67" t="s">
         <v>604</v>
@@ -8318,7 +8321,7 @@
         <v>62453</v>
       </c>
       <c r="B68" t="n">
-        <v>146971</v>
+        <v>178328</v>
       </c>
       <c r="C68" t="s">
         <v>613</v>
@@ -8389,7 +8392,7 @@
         <v>62453</v>
       </c>
       <c r="B69" t="n">
-        <v>146972</v>
+        <v>178329</v>
       </c>
       <c r="C69" t="s">
         <v>623</v>
@@ -8531,7 +8534,7 @@
         <v>62453</v>
       </c>
       <c r="B71" t="n">
-        <v>146973</v>
+        <v>178330</v>
       </c>
       <c r="C71" t="s">
         <v>642</v>
@@ -8671,7 +8674,7 @@
         <v>62453</v>
       </c>
       <c r="B73" t="n">
-        <v>146974</v>
+        <v>178331</v>
       </c>
       <c r="C73" t="s">
         <v>660</v>
@@ -8740,7 +8743,7 @@
         <v>62453</v>
       </c>
       <c r="B74" t="n">
-        <v>146975</v>
+        <v>178332</v>
       </c>
       <c r="C74" t="s">
         <v>667</v>
@@ -8811,7 +8814,7 @@
         <v>62453</v>
       </c>
       <c r="B75" t="n">
-        <v>146976</v>
+        <v>178333</v>
       </c>
       <c r="C75" t="s">
         <v>677</v>
@@ -8880,7 +8883,7 @@
         <v>62453</v>
       </c>
       <c r="B76" t="n">
-        <v>146960</v>
+        <v>146940</v>
       </c>
       <c r="C76" t="s">
         <v>501</v>
@@ -8949,7 +8952,7 @@
         <v>62453</v>
       </c>
       <c r="B77" t="n">
-        <v>146977</v>
+        <v>178334</v>
       </c>
       <c r="C77" t="s">
         <v>695</v>
@@ -9014,7 +9017,7 @@
         <v>62453</v>
       </c>
       <c r="B78" t="n">
-        <v>146978</v>
+        <v>178335</v>
       </c>
       <c r="C78" t="s">
         <v>704</v>
@@ -9079,7 +9082,7 @@
         <v>62453</v>
       </c>
       <c r="B79" t="n">
-        <v>146979</v>
+        <v>178336</v>
       </c>
       <c r="C79" t="s">
         <v>713</v>
@@ -9221,7 +9224,7 @@
         <v>62453</v>
       </c>
       <c r="B81" t="n">
-        <v>146980</v>
+        <v>178337</v>
       </c>
       <c r="C81" t="s">
         <v>732</v>
@@ -9363,7 +9366,7 @@
         <v>62453</v>
       </c>
       <c r="B83" t="n">
-        <v>146981</v>
+        <v>178338</v>
       </c>
       <c r="C83" t="s">
         <v>749</v>
@@ -9432,7 +9435,7 @@
         <v>62453</v>
       </c>
       <c r="B84" t="n">
-        <v>146982</v>
+        <v>178339</v>
       </c>
       <c r="C84" t="s">
         <v>758</v>
@@ -9501,7 +9504,7 @@
         <v>62453</v>
       </c>
       <c r="B85" t="n">
-        <v>146983</v>
+        <v>178340</v>
       </c>
       <c r="C85" t="s">
         <v>765</v>
@@ -9566,7 +9569,7 @@
         <v>62453</v>
       </c>
       <c r="B86" t="n">
-        <v>146984</v>
+        <v>178341</v>
       </c>
       <c r="C86" t="s">
         <v>774</v>
@@ -9708,7 +9711,7 @@
         <v>62453</v>
       </c>
       <c r="B88" t="n">
-        <v>146985</v>
+        <v>178342</v>
       </c>
       <c r="C88" t="s">
         <v>792</v>
@@ -9777,7 +9780,7 @@
         <v>62453</v>
       </c>
       <c r="B89" t="n">
-        <v>146986</v>
+        <v>178343</v>
       </c>
       <c r="C89" t="s">
         <v>799</v>
@@ -9842,7 +9845,7 @@
         <v>62453</v>
       </c>
       <c r="B90" t="n">
-        <v>146987</v>
+        <v>178344</v>
       </c>
       <c r="C90" t="s">
         <v>809</v>
@@ -9911,7 +9914,7 @@
         <v>62453</v>
       </c>
       <c r="B91" t="n">
-        <v>146988</v>
+        <v>178345</v>
       </c>
       <c r="C91" t="s">
         <v>819</v>
@@ -9980,7 +9983,7 @@
         <v>62453</v>
       </c>
       <c r="B92" t="n">
-        <v>146989</v>
+        <v>178346</v>
       </c>
       <c r="C92" t="s">
         <v>828</v>
@@ -10177,7 +10180,7 @@
         <v>62453</v>
       </c>
       <c r="B95" t="n">
-        <v>146990</v>
+        <v>178347</v>
       </c>
       <c r="C95" t="s">
         <v>855</v>
@@ -10238,7 +10241,7 @@
         <v>62453</v>
       </c>
       <c r="B96" t="n">
-        <v>146991</v>
+        <v>178348</v>
       </c>
       <c r="C96" t="s">
         <v>864</v>
@@ -10445,7 +10448,7 @@
         <v>62453</v>
       </c>
       <c r="B99" t="n">
-        <v>146992</v>
+        <v>178349</v>
       </c>
       <c r="C99" t="s">
         <v>891</v>
@@ -10520,7 +10523,7 @@
         <v>62453</v>
       </c>
       <c r="B100" t="n">
-        <v>146993</v>
+        <v>178350</v>
       </c>
       <c r="C100" t="s">
         <v>900</v>
@@ -10585,7 +10588,7 @@
         <v>62453</v>
       </c>
       <c r="B101" t="n">
-        <v>146994</v>
+        <v>178351</v>
       </c>
       <c r="C101" t="s">
         <v>907</v>
@@ -10646,7 +10649,7 @@
         <v>62453</v>
       </c>
       <c r="B102" t="n">
-        <v>146995</v>
+        <v>178352</v>
       </c>
       <c r="C102" t="s">
         <v>916</v>
@@ -10796,7 +10799,7 @@
         <v>62453</v>
       </c>
       <c r="B104" t="n">
-        <v>146996</v>
+        <v>178353</v>
       </c>
       <c r="C104" t="s">
         <v>932</v>
@@ -10871,7 +10874,7 @@
         <v>62453</v>
       </c>
       <c r="B105" t="n">
-        <v>146997</v>
+        <v>178354</v>
       </c>
       <c r="C105" t="s">
         <v>941</v>
@@ -10944,7 +10947,7 @@
         <v>62453</v>
       </c>
       <c r="B106" t="n">
-        <v>146998</v>
+        <v>178355</v>
       </c>
       <c r="C106" t="s">
         <v>950</v>
@@ -11019,7 +11022,7 @@
         <v>62453</v>
       </c>
       <c r="B107" t="n">
-        <v>146999</v>
+        <v>178356</v>
       </c>
       <c r="C107" t="s">
         <v>960</v>
@@ -11090,7 +11093,7 @@
         <v>62453</v>
       </c>
       <c r="B108" t="n">
-        <v>147000</v>
+        <v>178357</v>
       </c>
       <c r="C108" t="s">
         <v>969</v>
@@ -11155,7 +11158,7 @@
         <v>62453</v>
       </c>
       <c r="B109" t="n">
-        <v>147001</v>
+        <v>178358</v>
       </c>
       <c r="C109" t="s">
         <v>977</v>
@@ -11305,7 +11308,7 @@
         <v>62453</v>
       </c>
       <c r="B111" t="n">
-        <v>147002</v>
+        <v>178359</v>
       </c>
       <c r="C111" t="s">
         <v>995</v>
@@ -11376,7 +11379,7 @@
         <v>62453</v>
       </c>
       <c r="B112" t="n">
-        <v>147003</v>
+        <v>178360</v>
       </c>
       <c r="C112" t="s">
         <v>1004</v>
@@ -11450,8 +11453,12 @@
       <c r="A113" t="n">
         <v>62453</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>9377</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1011</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
@@ -11459,7 +11466,7 @@
         <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G113" t="s">
         <v>47</v>
@@ -11468,22 +11475,22 @@
         <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="J113" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K113" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="L113" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O113" t="s">
         <v>54</v>
@@ -11508,13 +11515,13 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="X113" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Y113" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="114">
@@ -11522,10 +11529,10 @@
         <v>62453</v>
       </c>
       <c r="B114" t="n">
-        <v>147004</v>
+        <v>178361</v>
       </c>
       <c r="C114" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D114" t="n">
         <v>113</v>
@@ -11534,7 +11541,7 @@
         <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G114" t="s">
         <v>47</v>
@@ -11543,22 +11550,22 @@
         <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="J114" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K114" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L114" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="O114" t="s">
         <v>54</v>
@@ -11583,13 +11590,13 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="X114" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Y114" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="115">
@@ -11600,7 +11607,7 @@
         <v>48480</v>
       </c>
       <c r="C115" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D115" t="n">
         <v>114</v>
@@ -11609,7 +11616,7 @@
         <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G115" t="s">
         <v>47</v>
@@ -11618,22 +11625,22 @@
         <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="J115" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K115" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L115" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="O115" t="s">
         <v>54</v>
@@ -11658,13 +11665,13 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="X115" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Y115" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="116">
@@ -11672,10 +11679,10 @@
         <v>62453</v>
       </c>
       <c r="B116" t="n">
-        <v>147005</v>
+        <v>178362</v>
       </c>
       <c r="C116" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D116" t="n">
         <v>115</v>
@@ -11684,7 +11691,7 @@
         <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G116" t="s">
         <v>47</v>
@@ -11693,22 +11700,22 @@
         <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="J116" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="K116" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="L116" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="O116" t="s">
         <v>54</v>
@@ -11733,13 +11740,13 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="X116" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="Y116" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="117">
@@ -11747,10 +11754,10 @@
         <v>62453</v>
       </c>
       <c r="B117" t="n">
-        <v>147006</v>
+        <v>178363</v>
       </c>
       <c r="C117" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D117" t="n">
         <v>116</v>
@@ -11759,7 +11766,7 @@
         <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G117" t="s">
         <v>47</v>
@@ -11768,22 +11775,22 @@
         <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="J117" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="K117" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L117" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="O117" t="s">
         <v>100</v>
@@ -11810,7 +11817,7 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="118">
@@ -11818,10 +11825,10 @@
         <v>62453</v>
       </c>
       <c r="B118" t="n">
-        <v>147007</v>
+        <v>178364</v>
       </c>
       <c r="C118" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D118" t="n">
         <v>117</v>
@@ -11830,7 +11837,7 @@
         <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11839,16 +11846,16 @@
         <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="J118" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K118" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="L118" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
@@ -11877,7 +11884,7 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="119">
@@ -11885,10 +11892,10 @@
         <v>62453</v>
       </c>
       <c r="B119" t="n">
-        <v>147008</v>
+        <v>178365</v>
       </c>
       <c r="C119" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D119" t="n">
         <v>118</v>
@@ -11897,7 +11904,7 @@
         <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11906,22 +11913,22 @@
         <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J119" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="K119" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="L119" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O119" t="s">
         <v>54</v>
@@ -11948,7 +11955,7 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="120">
@@ -11956,10 +11963,10 @@
         <v>62453</v>
       </c>
       <c r="B120" t="n">
-        <v>147009</v>
+        <v>178366</v>
       </c>
       <c r="C120" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D120" t="n">
         <v>119</v>
@@ -11968,7 +11975,7 @@
         <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G120" t="s">
         <v>47</v>
@@ -11977,22 +11984,22 @@
         <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="J120" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="K120" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="L120" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="M120" t="n">
         <v>5</v>
       </c>
       <c r="N120" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O120" t="s">
         <v>272</v>
@@ -12019,7 +12026,7 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="121">
@@ -12027,10 +12034,10 @@
         <v>62453</v>
       </c>
       <c r="B121" t="n">
-        <v>147010</v>
+        <v>178367</v>
       </c>
       <c r="C121" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D121" t="n">
         <v>120</v>
@@ -12039,7 +12046,7 @@
         <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G121" t="s">
         <v>47</v>
@@ -12048,22 +12055,22 @@
         <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J121" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="K121" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L121" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O121" t="s">
         <v>100</v>
@@ -12090,7 +12097,7 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="122">
@@ -12098,10 +12105,10 @@
         <v>62453</v>
       </c>
       <c r="B122" t="n">
-        <v>147011</v>
+        <v>178368</v>
       </c>
       <c r="C122" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D122" t="n">
         <v>121</v>
@@ -12110,7 +12117,7 @@
         <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -12119,22 +12126,22 @@
         <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="J122" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="K122" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="L122" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M122" t="n">
         <v>5</v>
       </c>
       <c r="N122" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O122" t="s">
         <v>54</v>
@@ -12161,7 +12168,7 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="123">
@@ -12169,10 +12176,10 @@
         <v>62453</v>
       </c>
       <c r="B123" t="n">
-        <v>147012</v>
+        <v>178369</v>
       </c>
       <c r="C123" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D123" t="n">
         <v>122</v>
@@ -12181,7 +12188,7 @@
         <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G123" t="s">
         <v>47</v>
@@ -12190,22 +12197,22 @@
         <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="J123" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="K123" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="L123" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="M123" t="n">
         <v>5</v>
       </c>
       <c r="N123" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O123" t="s">
         <v>54</v>
@@ -12232,7 +12239,7 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
